--- a/Liouvilian/cm_store.xlsx
+++ b/Liouvilian/cm_store.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EvaPei/Desktop/GT/Davidovic/TCL_GitHub_Access/Liouvilian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51423321-1806-0347-9C09-816BC3964291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D64D75B-AF5C-6146-ABEC-006FBC2DA94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="279" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="207" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -545,28 +545,29 @@
     <col min="2" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" customWidth="1"/>
     <col min="5" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
     <col min="16" max="16" width="16.1640625" customWidth="1"/>
-    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
     <col min="18" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
     <col min="20" max="20" width="8.83203125" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" customWidth="1"/>
-    <col min="22" max="22" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
     <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
     <col min="25" max="25" width="12.6640625" customWidth="1"/>
     <col min="26" max="29" width="12.5" customWidth="1"/>
     <col min="30" max="30" width="17.33203125" customWidth="1"/>
-    <col min="31" max="32" width="12.5" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" customWidth="1"/>
+    <col min="31" max="31" width="15.5" customWidth="1"/>
+    <col min="32" max="32" width="11.83203125" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" customWidth="1"/>
     <col min="34" max="35" width="10.5" customWidth="1"/>
     <col min="36" max="36" width="11.5" customWidth="1"/>
     <col min="37" max="37" width="9.83203125" customWidth="1"/>
@@ -580,7 +581,7 @@
     <col min="46" max="46" width="13.5" customWidth="1"/>
     <col min="47" max="47" width="12.5" customWidth="1"/>
     <col min="48" max="49" width="11.5" customWidth="1"/>
-    <col min="50" max="51" width="13.5" customWidth="1"/>
+    <col min="50" max="52" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
